--- a/C099_折り紙の貼り合わせ.xlsx
+++ b/C099_折り紙の貼り合わせ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25930"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CABB72DD-7DEE-4E73-9680-6F98548FA6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDB05DC-F3BB-4C8E-AA69-C6579C624862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B039_" sheetId="1" r:id="rId1"/>
+    <sheet name="C099" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
     <t>D(cm)</t>
   </si>
   <si>
-    <t>origami_one_lenght</t>
+    <t>$len</t>
   </si>
   <si>
     <t>折り紙の枚数</t>
@@ -45,19 +45,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>origami_count</t>
+    <t>$count</t>
   </si>
   <si>
     <t>折り紙の連想配列</t>
   </si>
   <si>
-    <t>origamis_len[i]</t>
+    <t>$origamis_len[i]</t>
   </si>
   <si>
     <t>各折り紙の入力データ</t>
   </si>
   <si>
-    <t>origamis_len_data[i]</t>
+    <t>$overlap_len_datas[i]</t>
   </si>
   <si>
     <t>メソッド</t>
@@ -66,37 +66,37 @@
     <t>step1</t>
   </si>
   <si>
-    <t>first_origami_len_set</t>
-  </si>
-  <si>
-    <t>1枚目の折り紙の長さを設定</t>
+    <t>input</t>
+  </si>
+  <si>
+    <t>折り紙の長さをデータファイルから取得</t>
   </si>
   <si>
     <t>step2</t>
   </si>
   <si>
+    <t>unset_overlap_len_datas</t>
+  </si>
+  <si>
+    <t>データファイルの先頭行の削除</t>
+  </si>
+  <si>
+    <t>step3</t>
+  </si>
+  <si>
     <t>origami_half_div</t>
   </si>
   <si>
-    <t>折り紙の連想配列[i]＝d - d_2</t>
-  </si>
-  <si>
-    <t>step3</t>
+    <t>前の折り紙と重なっている長さを計算</t>
+  </si>
+  <si>
+    <t>step4</t>
   </si>
   <si>
     <t>resurt_add</t>
   </si>
   <si>
-    <t>折り紙の連想配列の累積</t>
-  </si>
-  <si>
-    <t>step4</t>
-  </si>
-  <si>
-    <t>output_len</t>
-  </si>
-  <si>
-    <t>折り紙の面積の表示</t>
+    <t>抽出結果で面積を計算する</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -766,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
